--- a/biology/Médecine/Friedrich_Ernst_Krukenberg/Friedrich_Ernst_Krukenberg.xlsx
+++ b/biology/Médecine/Friedrich_Ernst_Krukenberg/Friedrich_Ernst_Krukenberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Ernst Krukenberg, né à Halle le 1er avril 1871 et décédé le 20 février 1946, était un médecin allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un avocat, le plus jeune de ses sept enfants, il commença à étudier la médecine dans sa ville natale, puis à Marbourg où il reçut l’enseignement de l'ophtalmologiste allemand Karl Theodor Paul Polykarpus Axenfeld (1867-1930).
 Un autre de ses enseignants à Marburg était Felix Jacob Marchand (de) (1846-1928), qui dirigeait la section de pathologie. En 1896, il avait décrit une forme particulière de cancer des ovaires et il confia à Krukenberg six cas de tumeurs des ovaires, avec lesquels le jeune étudiant prépara sa thèse de doctorat. Dans aucun de ces cas, il ne s’agissait de métastases.
